--- a/dhan_excel/PValue_Pulse.xlsx
+++ b/dhan_excel/PValue_Pulse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Harvest FinCrop\Algo Trading\dhan_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BFA33F-494E-4746-86AF-E2D1DE3DBD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F96F33E-750D-4150-81AB-517CBD9F9DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3F6F1494-9B09-4F57-8AEB-2BA84EF373A6}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <definedName name="ALLOCATION_PCT">TRADEMGMT!$B$6</definedName>
     <definedName name="ATM_KEY">Trade!$G$6</definedName>
     <definedName name="ATM_LTP">Trade!$H$6</definedName>
-    <definedName name="AVG_BUY_PRICE">TRADEMGMT!$B$17</definedName>
+    <definedName name="AVG_BUY_PRICE">TRADEMGMT!$B$20</definedName>
     <definedName name="BROKERAGE">'Brokerage Charges'!$D$1</definedName>
     <definedName name="BUY_ORDER_COST">TRADEMGMT!$H$4</definedName>
     <definedName name="BUY_QTY">TRADEMGMT!$B$16</definedName>
@@ -86,24 +86,27 @@
     <definedName name="ORDERSTATUS">Trade!$B$37</definedName>
     <definedName name="POTENTIAL_PROFIT">TRADEMGMT!$H$5</definedName>
     <definedName name="PROFIT_EXIT_ACTUAL_PERCENTAGE">Trade!$B$19</definedName>
-    <definedName name="PROFIT_TARGET">TRADEMGMT!$B$20</definedName>
-    <definedName name="PROFIT_TARGET_CHARGES_ADJUSTED">TRADEMGMT!$B$22</definedName>
+    <definedName name="PROFIT_TARGET">TRADEMGMT!$B$23</definedName>
+    <definedName name="PROFIT_TARGET_CHARGES_ADJUSTED">TRADEMGMT!$B$25</definedName>
     <definedName name="PROFT_EXIT_TRIGGER_PERCENTAGE">Trade!$B$17</definedName>
     <definedName name="Refresh">Trade!$B$29</definedName>
     <definedName name="Safe_Mode">Trade!$B$33</definedName>
     <definedName name="SELECTED_KEY">Trade!$C$2</definedName>
     <definedName name="SELECTED_LTP">Trade!$C$3</definedName>
+    <definedName name="SELL_NON_SLICE_ORDER_QTY">TRADEMGMT!$B$19</definedName>
+    <definedName name="SELL_SLICE_ORDER_QTY">TRADEMGMT!$B$18</definedName>
     <definedName name="SIDE">Trade!$D$5</definedName>
-    <definedName name="SL_TARGET">TRADEMGMT!$B$21</definedName>
+    <definedName name="SL_TARGET">TRADEMGMT!$B$24</definedName>
     <definedName name="SLICE_ORDER_QTY">TRADEMGMT!$B$10</definedName>
     <definedName name="SYMBOL_KEY">TRADEMGMT!$B$3</definedName>
     <definedName name="TOTAL_ORDERED_QTY">TRADEMGMT!$E$3</definedName>
     <definedName name="TOTAL_ORDERS">TRADEMGMT!$E$5</definedName>
     <definedName name="TOTAL_TRADED_LOTS">TRADEMGMT!$E$6</definedName>
     <definedName name="TOTAL_TRADED_QTY">TRADEMGMT!$E$4</definedName>
+    <definedName name="TRADE_STATUS">TRADEMGMT!$B$13</definedName>
     <definedName name="TRADEDSERIES">TRADEMGMT!$B$2</definedName>
-    <definedName name="TRIGGER_PROFIT">TRADEMGMT!$B$18</definedName>
-    <definedName name="TRIGGER_SL">TRADEMGMT!$B$19</definedName>
+    <definedName name="TRIGGER_PROFIT">TRADEMGMT!$B$21</definedName>
+    <definedName name="TRIGGER_SL">TRADEMGMT!$B$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -188,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="1686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="1688">
   <si>
     <t>Instrument</t>
   </si>
@@ -4966,9 +4969,6 @@
     <t>Average Price</t>
   </si>
   <si>
-    <t>ORDER NUMBER</t>
-  </si>
-  <si>
     <t>ORDER QTY</t>
   </si>
   <si>
@@ -5242,10 +5242,19 @@
     <t>NON SLICE ORDERT QTY</t>
   </si>
   <si>
-    <t>CRUDEOIL PE</t>
-  </si>
-  <si>
     <t>STOP</t>
+  </si>
+  <si>
+    <t>NIFTY PE</t>
+  </si>
+  <si>
+    <t>BUY_ORDER_ID</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>OPEN</t>
   </si>
 </sst>
 </file>
@@ -5371,7 +5380,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5420,6 +5429,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -5454,7 +5469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -5491,7 +5506,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5541,6 +5555,17 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5984,8 +6009,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AL37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -6015,27 +6040,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="E1" s="52" t="str">
+      <c r="B1" s="50"/>
+      <c r="E1" s="51" t="str">
         <f>B24</f>
         <v>PE</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52" t="str">
+      <c r="F1" s="51"/>
+      <c r="G1" s="51" t="str">
         <f>SIDE</f>
         <v>OTM</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53">
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52">
         <f>Charges!H1</f>
         <v>-4233.9525139650004</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="54">
+      <c r="K1" s="52"/>
+      <c r="L1" s="53">
         <f>Charges!K1</f>
         <v>22</v>
       </c>
@@ -6046,23 +6071,23 @@
       </c>
       <c r="B2" s="3" t="str">
         <f>INDEX_NAME</f>
-        <v>CRUDEOIL PE</v>
-      </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
+        <v>NIFTY PE</v>
+      </c>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="53"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5829</v>
+        <v>24611.1</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
@@ -6183,7 +6208,7 @@
       </c>
       <c r="B5" s="3">
         <f>VLOOKUP(INSTRUMENT,IndexLookup!A:C,3,FALSE)</f>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>1168</v>
@@ -6305,15 +6330,15 @@
       </c>
       <c r="E6" s="9">
         <f>$B$3-MOD($B$3,$B$4)</f>
-        <v>5800</v>
+        <v>24600</v>
       </c>
       <c r="F6" s="9" t="str">
         <f>$B$22&amp;"_"&amp;E6</f>
-        <v>CRUDEOIL_PE_5800</v>
+        <v>NIFTY_PE_24600</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP(F6,OptionsLookUp!A:B,2,FALSE)</f>
-        <v>465008</v>
+        <v>60454</v>
       </c>
       <c r="H6" s="9">
         <v>197.5</v>
@@ -6395,7 +6420,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6791.28</v>
+        <v>7266.67</v>
       </c>
       <c r="D7" t="str">
         <f xml:space="preserve"> $D$5&amp;"-1"</f>
@@ -6403,15 +6428,15 @@
       </c>
       <c r="E7">
         <f>IF($D$5="ITM",IF($B$24="PE",$E$6+($B$4*RIGHT(D7,1)),$E$6-($B$4*RIGHT(D7,1))),IF($B$24="PE",$E$6-($B$4*RIGHT(D7,1)),$E$6+($B$4*RIGHT(D7,1))))</f>
-        <v>5750</v>
+        <v>24550</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" ref="F7:F16" si="10">$B$22&amp;"_"&amp;E7</f>
-        <v>CRUDEOIL_PE_5750</v>
+        <v>NIFTY_PE_24550</v>
       </c>
       <c r="G7">
         <f>VLOOKUP(F7,OptionsLookUp!A:B,2,FALSE)</f>
-        <v>465007</v>
+        <v>60452</v>
       </c>
       <c r="H7">
         <v>171.9</v>
@@ -6502,15 +6527,15 @@
       </c>
       <c r="E8" s="10">
         <f t="shared" ref="E8:E15" si="17">IF($D$5="ITM",IF($B$24="PE",$E$6+($B$4*RIGHT(D8,1)),$E$6-($B$4*RIGHT(D8,1))),IF($B$24="PE",$E$6-($B$4*RIGHT(D8,1)),$E$6+($B$4*RIGHT(D8,1))))</f>
-        <v>5700</v>
+        <v>24500</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="10"/>
-        <v>CRUDEOIL_PE_5700</v>
+        <v>NIFTY_PE_24500</v>
       </c>
       <c r="G8">
         <f>VLOOKUP(F8,OptionsLookUp!A:B,2,FALSE)</f>
-        <v>465006</v>
+        <v>60450</v>
       </c>
       <c r="H8">
         <v>145.5</v>
@@ -6601,15 +6626,15 @@
       </c>
       <c r="E9" s="10">
         <f t="shared" si="17"/>
-        <v>5650</v>
+        <v>24450</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="10"/>
-        <v>CRUDEOIL_PE_5650</v>
+        <v>NIFTY_PE_24450</v>
       </c>
       <c r="G9">
         <f>VLOOKUP(F9,OptionsLookUp!A:B,2,FALSE)</f>
-        <v>465005</v>
+        <v>60442</v>
       </c>
       <c r="H9">
         <v>125</v>
@@ -6701,15 +6726,15 @@
       </c>
       <c r="E10" s="10">
         <f t="shared" si="17"/>
-        <v>5600</v>
+        <v>24400</v>
       </c>
       <c r="F10" s="10" t="str">
         <f t="shared" si="10"/>
-        <v>CRUDEOIL_PE_5600</v>
+        <v>NIFTY_PE_24400</v>
       </c>
       <c r="G10" s="10">
         <f>VLOOKUP(F10,OptionsLookUp!A:B,2,FALSE)</f>
-        <v>464928</v>
+        <v>60440</v>
       </c>
       <c r="H10" s="10">
         <v>106.6</v>
@@ -6800,15 +6825,15 @@
       </c>
       <c r="E11" s="10">
         <f t="shared" si="17"/>
-        <v>5550</v>
+        <v>24350</v>
       </c>
       <c r="F11" s="10" t="str">
         <f t="shared" si="10"/>
-        <v>CRUDEOIL_PE_5550</v>
+        <v>NIFTY_PE_24350</v>
       </c>
       <c r="G11" s="10">
         <f>VLOOKUP(F11,OptionsLookUp!A:B,2,FALSE)</f>
-        <v>464981</v>
+        <v>60406</v>
       </c>
       <c r="H11" s="10">
         <v>89.85</v>
@@ -6896,15 +6921,15 @@
       </c>
       <c r="E12" s="10">
         <f t="shared" si="17"/>
-        <v>5500</v>
+        <v>24300</v>
       </c>
       <c r="F12" s="10" t="str">
         <f t="shared" si="10"/>
-        <v>CRUDEOIL_PE_5500</v>
+        <v>NIFTY_PE_24300</v>
       </c>
       <c r="G12" s="10">
         <f>VLOOKUP(F12,OptionsLookUp!A:B,2,FALSE)</f>
-        <v>464982</v>
+        <v>60401</v>
       </c>
       <c r="H12" s="10">
         <v>77.349999999999994</v>
@@ -6995,15 +7020,15 @@
       </c>
       <c r="E13" s="10">
         <f t="shared" si="17"/>
-        <v>5450</v>
+        <v>24250</v>
       </c>
       <c r="F13" s="10" t="str">
         <f t="shared" si="10"/>
-        <v>CRUDEOIL_PE_5450</v>
+        <v>NIFTY_PE_24250</v>
       </c>
       <c r="G13" s="10">
         <f>VLOOKUP(F13,OptionsLookUp!A:B,2,FALSE)</f>
-        <v>464983</v>
+        <v>60392</v>
       </c>
       <c r="H13" s="10">
         <v>62</v>
@@ -7095,15 +7120,15 @@
       </c>
       <c r="E14" s="10">
         <f t="shared" si="17"/>
-        <v>5400</v>
+        <v>24200</v>
       </c>
       <c r="F14" s="10" t="str">
         <f t="shared" si="10"/>
-        <v>CRUDEOIL_PE_5400</v>
+        <v>NIFTY_PE_24200</v>
       </c>
       <c r="G14" s="10">
         <f>VLOOKUP(F14,OptionsLookUp!A:B,2,FALSE)</f>
-        <v>464984</v>
+        <v>60390</v>
       </c>
       <c r="H14" s="10">
         <v>57.55</v>
@@ -7195,15 +7220,15 @@
       </c>
       <c r="E15" s="10">
         <f t="shared" si="17"/>
-        <v>5350</v>
+        <v>24150</v>
       </c>
       <c r="F15" s="10" t="str">
         <f t="shared" si="10"/>
-        <v>CRUDEOIL_PE_5350</v>
+        <v>NIFTY_PE_24150</v>
       </c>
       <c r="G15" s="10">
         <f>VLOOKUP(F15,OptionsLookUp!A:B,2,FALSE)</f>
-        <v>464985</v>
+        <v>60383</v>
       </c>
       <c r="H15" s="10">
         <v>10.55</v>
@@ -7292,15 +7317,15 @@
       </c>
       <c r="E16" s="10">
         <f>IF($D$5="ITM",IF($B$24="PE",$E$6+($B$4*RIGHT(D16,2)),$E$6-($B$4*RIGHT(D16,2))),IF($B$24="PE",$E$6-($B$4*RIGHT(D16,2)),$E$6+($B$4*RIGHT(D16,2))))</f>
-        <v>5300</v>
+        <v>24100</v>
       </c>
       <c r="F16" s="10" t="str">
         <f t="shared" si="10"/>
-        <v>CRUDEOIL_PE_5300</v>
+        <v>NIFTY_PE_24100</v>
       </c>
       <c r="G16" s="10">
         <f>VLOOKUP(F16,OptionsLookUp!A:B,2,FALSE)</f>
-        <v>464986</v>
+        <v>60381</v>
       </c>
       <c r="H16" s="10">
         <v>43.5</v>
@@ -7527,7 +7552,7 @@
       </c>
       <c r="B22" t="str">
         <f>B23&amp;"_"&amp;B24</f>
-        <v>CRUDEOIL_PE</v>
+        <v>NIFTY_PE</v>
       </c>
       <c r="D22" s="4" t="str">
         <f t="shared" si="41"/>
@@ -7573,7 +7598,7 @@
       </c>
       <c r="B23" t="str">
         <f>LEFT(B2,FIND(" ",B2,1)-1)</f>
-        <v>CRUDEOIL</v>
+        <v>NIFTY</v>
       </c>
       <c r="D23" s="4" t="str">
         <f t="shared" si="41"/>
@@ -7664,7 +7689,7 @@
       </c>
       <c r="B25">
         <f>VLOOKUP(B23,IndexLookup!A1:B5,2,FALSE)</f>
-        <v>455865</v>
+        <v>13</v>
       </c>
       <c r="D25" s="4" t="str">
         <f t="shared" si="41"/>
@@ -7700,7 +7725,7 @@
       </c>
       <c r="L25" s="21">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
@@ -7730,15 +7755,15 @@
       </c>
       <c r="J26" s="21">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="21">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="21">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
@@ -7747,7 +7772,7 @@
       </c>
       <c r="B27">
         <f>IF(OR(LEFT(B2,1)="N",LEFT(B2,1)="B"),B5,1)</f>
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="D27" s="4" t="str">
         <f t="shared" si="41"/>
@@ -7771,15 +7796,15 @@
       </c>
       <c r="I27" s="21">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="21">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="21">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="21">
         <f t="shared" si="40"/>
@@ -7805,15 +7830,15 @@
       </c>
       <c r="H28" s="21">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="21">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="21">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="21">
         <f t="shared" si="39"/>
@@ -7837,35 +7862,35 @@
       </c>
       <c r="E29" s="21">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="21">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" s="21">
         <f t="shared" si="35"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H29" s="21">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I29" s="21">
         <f t="shared" si="37"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J29" s="21">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K29" s="21">
         <f t="shared" si="39"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L29" s="21">
         <f t="shared" si="40"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
@@ -7883,11 +7908,11 @@
       </c>
       <c r="G30" s="21">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="21">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="21">
         <f t="shared" si="37"/>
@@ -7899,11 +7924,11 @@
       </c>
       <c r="K30" s="21">
         <f t="shared" si="39"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30" s="21">
         <f t="shared" si="40"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA30" s="10"/>
       <c r="AB30" s="10"/>
@@ -7920,18 +7945,18 @@
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="D32" s="50" t="str">
+      <c r="D32" s="49" t="str">
         <f>IF(AND(LIMITMODE,COUNT(I6:I16)=0,COUNT(J6:J16)&lt;&gt;0),"PROVIDE LIMIT PRICE","")</f>
         <v/>
       </c>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -7940,15 +7965,15 @@
       <c r="B33" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E34" s="8"/>
@@ -7964,7 +7989,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B37" t="s">
         <v>1580</v>
@@ -7993,7 +8018,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
+  <dataValidations disablePrompts="1" count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29" xr:uid="{A1FEE6D5-54C4-461C-B04B-7F0563CB22A3}">
       <formula1>"True, False"</formula1>
     </dataValidation>
@@ -8020,10 +8045,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290042F9-F80F-481B-96AF-EC37D2BB5A68}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8031,13 +8056,13 @@
     <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" style="10" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="10"/>
     <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -8046,143 +8071,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
-        <v>1601</v>
-      </c>
-      <c r="B1" s="35" t="s">
+      <c r="A1" s="33" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>1684</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
+      <c r="B2" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
     </row>
     <row r="3" spans="1:20" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>1600</v>
-      </c>
-      <c r="B3" s="38">
+      <c r="A3" s="37" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B3" s="56">
         <f>VLOOKUP(TRADEDSERIES,Trade!F6:G16,2,FALSE)</f>
-        <v>465005</v>
+        <v>60454</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E3" s="60">
+        <f>SUM(TRADEMGMT!E9:E1048574)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>1596</v>
-      </c>
-      <c r="E3" s="12">
-        <f>SUM(TRADEMGMT!E9:E1048571)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>1597</v>
       </c>
       <c r="H3" s="10">
         <f>IF(TOTAL_ORDERED_QTY&lt;&gt;0,SUMIF(TRADEMGMT!G9:G1048576,ORDERSTATUS,TRADEMGMT!H9:H1048576)/SUMIF(TRADEMGMT!G9:G1048576,ORDERSTATUS,TRADEMGMT!E9:E1048576),0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
     </row>
     <row r="4" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="38">
-        <v>112</v>
+      <c r="B4" s="56">
+        <v>0.05</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>1675</v>
-      </c>
-      <c r="E4" s="10">
+        <v>1674</v>
+      </c>
+      <c r="E4" s="58">
         <f>SUMIF(TRADEMGMT!G9:G1048576,ORDERSTATUS,TRADEMGMT!E9:E1048576)</f>
         <v>0</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>1598</v>
-      </c>
-      <c r="H4" s="32">
+        <v>1597</v>
+      </c>
+      <c r="H4" s="59">
         <f>SUMIF(TRADEMGMT!G9:G1048576,ORDERSTATUS,TRADEMGMT!H9:H1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
-        <v>1602</v>
-      </c>
-      <c r="B5" s="35">
-        <v>20</v>
+      <c r="A5" s="33" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B5" s="34">
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1673</v>
-      </c>
-      <c r="E5">
-        <f>COUNT(TRADEMGMT!D9:D1048571)</f>
-        <v>0</v>
+        <v>1672</v>
+      </c>
+      <c r="E5" s="58">
+        <f>COUNT(TRADEMGMT!D9:D1048574)</f>
+        <v>4</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>1671</v>
-      </c>
-      <c r="H5" s="32">
+        <v>1670</v>
+      </c>
+      <c r="H5" s="59">
         <f>BUY_ORDER_COST+(BUY_ORDER_COST*PROFIT_EXIT_ACTUAL_PERCENTAGE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="10" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
-        <v>1603</v>
-      </c>
-      <c r="B6" s="37">
+      <c r="A6" s="35" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B6" s="36">
         <v>1</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>1674</v>
-      </c>
-      <c r="E6" s="10">
+        <v>1673</v>
+      </c>
+      <c r="E6" s="58">
         <f>COUNTIF(TRADEMGMT!G9:G1048576,ORDERSTATUS)</f>
         <v>0</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H6" s="32">
+        <v>1671</v>
+      </c>
+      <c r="H6" s="59">
         <f>BUY_ORDER_COST-(BUY_ORDER_COST*LOSS_EXIT_ACTUAL_PERCENTAGE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="37" t="s">
         <v>1549</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="56">
         <f>IF(ALLOCATION_PCT&lt;&gt;"",
                   IF(LMT_PRICE&lt;&gt;"",ROUNDDOWN((CAPITAL*ALLOCATION_PCT)/(LMT_PRICE*LOT_SIZE),0)*LOTSIZEMULTIPLIER,
                  ROUNDDOWN((CAPITAL*ALLOCATION_PCT)/(LTP*LOT_SIZE),0)*LOTSIZEMULTIPLIER),
 "")</f>
-        <v>3</v>
+        <v>7200</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -8194,86 +8220,133 @@
       <c r="S7"/>
     </row>
     <row r="8" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
-        <v>1680</v>
-      </c>
-      <c r="B8" s="38">
+      <c r="A8" s="37" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B8" s="37">
         <f>VLOOKUP(INSTRUMENT,IndexLookup!$A$1:$E$5,4,FALSE)</f>
-        <v>100</v>
+        <v>1800</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>1592</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>1593</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>1594</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>1598</v>
+        <v>1597</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>1592</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>1593</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>1597</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B9" s="38">
+      <c r="A9" s="37" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B9" s="37">
         <f>ROUNDUP(B7/B8,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="12"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="12">
+        <v>102250930610902</v>
+      </c>
       <c r="E9"/>
       <c r="G9"/>
+      <c r="J9" s="12">
+        <v>102250930610902</v>
+      </c>
     </row>
     <row r="10" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="37" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B10" s="56">
+        <f>(B9-1)*B8</f>
+        <v>5400</v>
+      </c>
+      <c r="D10" s="12">
+        <v>102250930610802</v>
+      </c>
+      <c r="J10" s="12">
+        <v>102250930610802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
         <v>1682</v>
       </c>
-      <c r="B10" s="38">
-        <f>(B9-1)*B8</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="B11" s="56">
+        <f>B8-((B9*B8)-B7)</f>
+        <v>1800</v>
+      </c>
+      <c r="D11" s="12">
+        <v>42250930656302</v>
+      </c>
+      <c r="J11" s="12">
+        <v>42250930656302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B12" s="57" t="s">
         <v>1683</v>
       </c>
-      <c r="B11" s="38">
-        <f>B8-((B9*B8)-B7)</f>
-        <v>3</v>
-      </c>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
-        <v>1595</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>1685</v>
-      </c>
-      <c r="D12" s="31"/>
+      <c r="D12" s="61">
+        <v>332250930674802</v>
+      </c>
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
+      <c r="J12" s="61">
+        <v>332250930674802</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
       <c r="T12" s="31"/>
     </row>
     <row r="13" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D13" s="12"/>
       <c r="T13" s="31"/>
     </row>
     <row r="14" spans="1:20" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="D14" s="12"/>
       <c r="T14" s="31"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B15" s="10"/>
       <c r="J15" s="10"/>
@@ -8288,11 +8361,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>1665</v>
-      </c>
-      <c r="B16" s="10">
-        <f>TRADEMGMT!E6</f>
-        <v>0</v>
+        <v>1664</v>
+      </c>
+      <c r="B16" s="58">
+        <v>7200</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -8303,72 +8375,42 @@
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>1666</v>
-      </c>
-      <c r="B17" s="32">
+    <row r="17" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="62" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B17" s="58">
+        <f>ROUNDUP(B16/B8,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="62" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B18" s="58">
+        <f>(B17-1)*B8</f>
+        <v>5400</v>
+      </c>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="62" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B19" s="58">
+        <f>B8-((B17*B8)-B16)</f>
+        <v>1800</v>
+      </c>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B20" s="59">
         <f>TRADEMGMT!H3</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="32">
-        <f>IF(AVG_BUY_PRICE&lt;&gt;"",(AVG_BUY_PRICE+(AVG_BUY_PRICE*PROFT_EXIT_TRIGGER_PERCENTAGE))-MOD((AVG_BUY_PRICE+(AVG_BUY_PRICE*PROFT_EXIT_TRIGGER_PERCENTAGE)),0.05),"")</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-    </row>
-    <row r="19" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="32">
-        <f>IF(AVG_BUY_PRICE&lt;&gt;"",(AVG_BUY_PRICE-(AVG_BUY_PRICE*LOSS_EXIT_TRIGGER_PERCENTAGE))-MOD((AVG_BUY_PRICE-(AVG_BUY_PRICE*LOSS_EXIT_TRIGGER_PERCENTAGE)),0.05),"")</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B20" s="32">
-        <f>IF(AVG_BUY_PRICE&lt;&gt;"",(AVG_BUY_PRICE+(AVG_BUY_PRICE*PROFIT_EXIT_ACTUAL_PERCENTAGE))-MOD((AVG_BUY_PRICE+(AVG_BUY_PRICE*PROFIT_EXIT_ACTUAL_PERCENTAGE)),0.05),"")</f>
         <v>0</v>
       </c>
       <c r="I20" s="4"/>
@@ -8384,200 +8426,264 @@
       <c r="S20" s="31"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1668</v>
-      </c>
-      <c r="B21" s="32">
+      <c r="A21" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="59">
+        <f>IF(AVG_BUY_PRICE&lt;&gt;"",(AVG_BUY_PRICE+(AVG_BUY_PRICE*PROFT_EXIT_TRIGGER_PERCENTAGE))-MOD((AVG_BUY_PRICE+(AVG_BUY_PRICE*PROFT_EXIT_TRIGGER_PERCENTAGE)),0.05),"")</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+    </row>
+    <row r="22" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="59">
+        <f>IF(AVG_BUY_PRICE&lt;&gt;"",(AVG_BUY_PRICE-(AVG_BUY_PRICE*LOSS_EXIT_TRIGGER_PERCENTAGE))-MOD((AVG_BUY_PRICE-(AVG_BUY_PRICE*LOSS_EXIT_TRIGGER_PERCENTAGE)),0.05),"")</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B23" s="59">
+        <f>IF(AVG_BUY_PRICE&lt;&gt;"",(AVG_BUY_PRICE+(AVG_BUY_PRICE*PROFIT_EXIT_ACTUAL_PERCENTAGE))-MOD((AVG_BUY_PRICE+(AVG_BUY_PRICE*PROFIT_EXIT_ACTUAL_PERCENTAGE)),0.05),"")</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B24" s="59">
         <f>IF(AVG_BUY_PRICE&lt;&gt;"",(AVG_BUY_PRICE-(AVG_BUY_PRICE*LOSS_EXIT_ACTUAL_PERCENTAGE))-MOD((AVG_BUY_PRICE-(AVG_BUY_PRICE*LOSS_EXIT_ACTUAL_PERCENTAGE)),0.05),"")</f>
         <v>0</v>
       </c>
-      <c r="I21"/>
-      <c r="K21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>1670</v>
-      </c>
-      <c r="B22" s="32" t="e">
-        <f>IF(B33&lt;&gt;"",(B33-MOD(B33,0.05)),"")</f>
+      <c r="I24"/>
+      <c r="K24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B25" s="59" t="e">
+        <f>IF(B36&lt;&gt;"",(B36-MOD(B36,0.05)),"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22"/>
-      <c r="R22" s="10"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
-        <v>1669</v>
-      </c>
-      <c r="B23" s="44"/>
-      <c r="I23"/>
-      <c r="R23" s="10"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
+      <c r="I25"/>
+      <c r="R25" s="10"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B26" s="43"/>
+      <c r="I26"/>
+      <c r="R26" s="10"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="44" t="s">
         <v>1165</v>
       </c>
-      <c r="B24" s="46">
+      <c r="B27" s="45">
         <f>IF(BUY_QTY&lt;&gt;"",BUY_QTY*BROKERAGE*2,"")</f>
-        <v>0</v>
-      </c>
-      <c r="I24"/>
-      <c r="R24" s="10"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+        <v>288000</v>
+      </c>
+      <c r="I27"/>
+      <c r="R27" s="10"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="44" t="s">
         <v>1157</v>
       </c>
-      <c r="B25" s="46">
+      <c r="B28" s="45">
         <f>IF(BUY_QTY&lt;&gt;"",(BUY_ORDER_COST+POTENTIAL_PROFIT)*CHARGES_TRANSACTION_CHARGES,"")</f>
         <v>0</v>
       </c>
-      <c r="I25"/>
-      <c r="R25" s="10"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
+      <c r="I28"/>
+      <c r="R28" s="10"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="44" t="s">
         <v>1158</v>
       </c>
-      <c r="B26" s="46">
+      <c r="B29" s="45">
         <f>IF(BUY_QTY&lt;&gt;"",(BUY_ORDER_COST*CHARGES_STAMP_DUTY),"")</f>
         <v>0</v>
       </c>
-      <c r="I26"/>
-      <c r="R26" s="10"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
+      <c r="I29"/>
+      <c r="R29" s="10"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="44" t="s">
         <v>1159</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B30" s="45">
         <f>IF(BUY_QTY&lt;&gt;"",(BUY_ORDER_COST+(BUY_ORDER_COST*PROFIT_EXIT_ACTUAL_PERCENTAGE))*CHARGES_STT,"")</f>
         <v>0</v>
       </c>
-      <c r="I27"/>
-      <c r="R27" s="10"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="I30"/>
+      <c r="R30" s="10"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="44" t="s">
         <v>1160</v>
       </c>
-      <c r="B28" s="46">
+      <c r="B31" s="45">
         <f>IF(BUY_QTY&lt;&gt;"",(BUY_ORDER_COST+POTENTIAL_PROFIT)*CHARGES_SEBI,"")</f>
         <v>0</v>
       </c>
-      <c r="I28"/>
-      <c r="R28" s="10"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="45" t="s">
+      <c r="I31"/>
+      <c r="R31" s="10"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="44" t="s">
         <v>1161</v>
       </c>
-      <c r="B29" s="46">
+      <c r="B32" s="45">
         <f>IF(BUY_QTY&lt;&gt;"",(BUY_ORDER_COST+POTENTIAL_PROFIT)*CHARGES_IPFT,"")</f>
         <v>0</v>
       </c>
-      <c r="I29"/>
-      <c r="R29" s="10"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
+      <c r="I32"/>
+      <c r="R32" s="10"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="44" t="s">
         <v>1162</v>
       </c>
-      <c r="B30" s="46">
-        <f>IF(BUY_QTY&lt;&gt;"",(B24+B25+B28)*CHARGES_GST,"")</f>
-        <v>0</v>
-      </c>
-      <c r="I30"/>
-      <c r="R30" s="10"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
+      <c r="B33" s="45">
+        <f>IF(BUY_QTY&lt;&gt;"",(B27+B28+B31)*CHARGES_GST,"")</f>
+        <v>51840</v>
+      </c>
+      <c r="I33"/>
+      <c r="R33" s="10"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="44" t="s">
         <v>1163</v>
       </c>
-      <c r="B31" s="46">
-        <f>IF(BUY_QTY&lt;&gt;"",SUM(B24:B30),"")</f>
-        <v>0</v>
-      </c>
-      <c r="I31"/>
-      <c r="R31" s="10"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="45" t="s">
+      <c r="B34" s="45">
+        <f>IF(BUY_QTY&lt;&gt;"",SUM(B27:B33),"")</f>
+        <v>339840</v>
+      </c>
+      <c r="I34"/>
+      <c r="R34" s="10"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="44" t="s">
         <v>1164</v>
       </c>
-      <c r="B32" s="46" t="e">
-        <f>IF(BUY_QTY&lt;&gt;"",(B31/TOTAL_TRADED_QTY)+AVG_BUY_PRICE,"")</f>
+      <c r="B35" s="45" t="e">
+        <f>IF(BUY_QTY&lt;&gt;"",(B34/TOTAL_TRADED_QTY)+AVG_BUY_PRICE,"")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="44" t="s">
         <v>1167</v>
       </c>
-      <c r="B33" s="46" t="e">
-        <f>(B32-AVG_BUY_PRICE)+PROFIT_TARGET</f>
+      <c r="B36" s="45" t="e">
+        <f>(B35-AVG_BUY_PRICE)+PROFIT_TARGET</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="42"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="42"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="47" t="s">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B37" s="41"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B38" s="41"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="46" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B39" s="41"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>1676</v>
       </c>
-      <c r="B36" s="42"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>1677</v>
-      </c>
-      <c r="B37" s="42" t="str">
+      <c r="B40" s="41" t="str">
         <f>IF(AND(INITIATE="TRADE",ORDER_PLACED_QTY&gt;0),IF(LMT_PRICE&lt;&gt;"","LIMIT","MARKET"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="42"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="42"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="42"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
-      <c r="B41" s="42"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
-      <c r="B42" s="42"/>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B41" s="41"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B42" s="41"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="40"/>
+      <c r="B43" s="41"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="40"/>
+      <c r="B44" s="41"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="40"/>
+      <c r="B45" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{212417BE-54D2-46D7-B79B-198CD27529C3}">
       <formula1>"NIFTY PE, NIFTY CE, BANKNIFTY PE, BANKNIFTY CE,CRUDEOIL CE, CRUDEOIL PE, CRUDEOILM CE, CRUDEOILM PE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12" xr:uid="{03C9B054-A939-47CB-97F2-9DCC89D49BFD}">
-      <formula1>"START, STOP"</formula1>
+      <formula1>"TRADE, STOP"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{7263FF6E-CFF3-41C8-83D6-667A6690EC8E}">
+      <formula1>"OPEN,INITIATED,INPROGRESS,COMPLETE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{996C241C-E408-4845-812B-AAB72B96820F}">
           <x14:formula1>
             <xm:f>Trade!$F$6:$F$16</xm:f>
@@ -8838,7 +8944,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B30">
         <v>35208</v>
@@ -8846,7 +8952,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B31">
         <v>35209</v>
@@ -8854,7 +8960,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B32">
         <v>35213</v>
@@ -8862,7 +8968,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B33">
         <v>35214</v>
@@ -8902,7 +9008,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B38">
         <v>35593</v>
@@ -8910,7 +9016,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B39">
         <v>35596</v>
@@ -9158,7 +9264,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B70">
         <v>39572</v>
@@ -9166,7 +9272,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B71">
         <v>39573</v>
@@ -9174,7 +9280,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B72">
         <v>39574</v>
@@ -9182,7 +9288,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B73">
         <v>39575</v>
@@ -9430,7 +9536,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B104">
         <v>47003</v>
@@ -9438,7 +9544,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B105">
         <v>47004</v>
@@ -9558,7 +9664,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B120">
         <v>48041</v>
@@ -9566,7 +9672,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B121">
         <v>48042</v>
@@ -9766,7 +9872,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B146">
         <v>50912</v>
@@ -9774,7 +9880,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B147">
         <v>50913</v>
@@ -12942,7 +13048,7 @@
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B543">
         <v>57096</v>
@@ -12950,7 +13056,7 @@
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B544">
         <v>57097</v>
@@ -17782,7 +17888,7 @@
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1148" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B1148">
         <v>60837</v>
@@ -17790,7 +17896,7 @@
     </row>
     <row r="1149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1149" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B1149">
         <v>60838</v>
@@ -17798,7 +17904,7 @@
     </row>
     <row r="1150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1150" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B1150">
         <v>60839</v>
@@ -17806,7 +17912,7 @@
     </row>
     <row r="1151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1151" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B1151">
         <v>60840</v>
@@ -17814,7 +17920,7 @@
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1152" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B1152">
         <v>60841</v>
@@ -17822,7 +17928,7 @@
     </row>
     <row r="1153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1153" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B1153">
         <v>60842</v>
@@ -18294,7 +18400,7 @@
     </row>
     <row r="1212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1212" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B1212">
         <v>64666</v>
@@ -18302,7 +18408,7 @@
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1213" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B1213">
         <v>64667</v>
@@ -18310,7 +18416,7 @@
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1214" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B1214">
         <v>64668</v>
@@ -18318,7 +18424,7 @@
     </row>
     <row r="1215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1215" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B1215">
         <v>64669</v>
@@ -18326,7 +18432,7 @@
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1216" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B1216">
         <v>64670</v>
@@ -18334,7 +18440,7 @@
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1217" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B1217">
         <v>64671</v>
@@ -18342,7 +18448,7 @@
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1218" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B1218">
         <v>64672</v>
@@ -18350,7 +18456,7 @@
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1219" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B1219">
         <v>64673</v>
@@ -18358,7 +18464,7 @@
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1220" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B1220">
         <v>64674</v>
@@ -18366,7 +18472,7 @@
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1221" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B1221">
         <v>64675</v>
@@ -18374,7 +18480,7 @@
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1222" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B1222">
         <v>64676</v>
@@ -18382,7 +18488,7 @@
     </row>
     <row r="1223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1223" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B1223">
         <v>64677</v>
@@ -18390,7 +18496,7 @@
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1224" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B1224">
         <v>64678</v>
@@ -18398,7 +18504,7 @@
     </row>
     <row r="1225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1225" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B1225">
         <v>64679</v>
@@ -18406,7 +18512,7 @@
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1226" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B1226">
         <v>64680</v>
@@ -18414,7 +18520,7 @@
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1227" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B1227">
         <v>64681</v>
@@ -18422,7 +18528,7 @@
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1228" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B1228">
         <v>64682</v>
@@ -18430,7 +18536,7 @@
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1229" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B1229">
         <v>64683</v>
@@ -18614,7 +18720,7 @@
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1252" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B1252">
         <v>64706</v>
@@ -18622,7 +18728,7 @@
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1253" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B1253">
         <v>64707</v>
@@ -18630,7 +18736,7 @@
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1254" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B1254">
         <v>64708</v>
@@ -18638,7 +18744,7 @@
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1255" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B1255">
         <v>64709</v>
@@ -18646,7 +18752,7 @@
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1256" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B1256">
         <v>64710</v>
@@ -18654,7 +18760,7 @@
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1257" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B1257">
         <v>64711</v>
@@ -18662,7 +18768,7 @@
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1258" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B1258">
         <v>64737</v>
@@ -18670,7 +18776,7 @@
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1259" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B1259">
         <v>64738</v>
@@ -18678,7 +18784,7 @@
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1260" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B1260">
         <v>64739</v>
@@ -18686,7 +18792,7 @@
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1261" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B1261">
         <v>64754</v>
@@ -18694,7 +18800,7 @@
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1262" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B1262">
         <v>64755</v>
@@ -18702,7 +18808,7 @@
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1263" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B1263">
         <v>64756</v>
@@ -18710,7 +18816,7 @@
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1264" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B1264">
         <v>64763</v>
@@ -18718,7 +18824,7 @@
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1265" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B1265">
         <v>64764</v>
@@ -18726,7 +18832,7 @@
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1266" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B1266">
         <v>64768</v>
@@ -18734,7 +18840,7 @@
     </row>
     <row r="1267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1267" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B1267">
         <v>64769</v>
@@ -18742,7 +18848,7 @@
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1268" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B1268">
         <v>64770</v>
@@ -18750,7 +18856,7 @@
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1269" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B1269">
         <v>64771</v>
@@ -20839,10 +20945,10 @@
         <v>1548</v>
       </c>
       <c r="D1" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="E1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -35315,17 +35421,17 @@
         <f>B2-B1</f>
         <v>-3300</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="55" t="s">
         <v>1577</v>
       </c>
-      <c r="H1" s="55">
+      <c r="H1" s="54">
         <f>E1-E2</f>
         <v>-4233.9525139650004</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="55" t="s">
         <v>1579</v>
       </c>
-      <c r="K1" s="55">
+      <c r="K1" s="54">
         <f>COUNT(_xlfn.UNIQUE(A4:A52))</f>
         <v>22</v>
       </c>
@@ -35345,10 +35451,10 @@
         <f>SUM(M4:M52)</f>
         <v>933.95251396500009</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="55"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="54"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">

--- a/dhan_excel/PValue_Pulse.xlsx
+++ b/dhan_excel/PValue_Pulse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Harvest FinCrop\Algo Trading\dhan_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\SucessfulAlgoTrading\dhan_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F96F33E-750D-4150-81AB-517CBD9F9DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11130DFF-D6BE-4D57-81DB-44EC2C39467C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3F6F1494-9B09-4F57-8AEB-2BA84EF373A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3F6F1494-9B09-4F57-8AEB-2BA84EF373A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Trade" sheetId="1" r:id="rId1"/>
@@ -113,17 +113,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -5242,9 +5231,6 @@
     <t>NON SLICE ORDERT QTY</t>
   </si>
   <si>
-    <t>STOP</t>
-  </si>
-  <si>
     <t>NIFTY PE</t>
   </si>
   <si>
@@ -5254,7 +5240,10 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>OPEN</t>
+    <t>TRADE</t>
+  </si>
+  <si>
+    <t>START</t>
   </si>
 </sst>
 </file>
@@ -5262,10 +5251,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="0.00000%"/>
-    <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="0.00000%"/>
+    <numFmt numFmtId="167" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -5489,7 +5478,7 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5498,7 +5487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5527,13 +5516,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5544,7 +5544,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -5555,17 +5555,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5710,9 +5699,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5750,7 +5739,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5856,7 +5845,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5998,7 +5987,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6009,8 +5998,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AL37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -6040,27 +6029,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="E1" s="51" t="str">
+      <c r="B1" s="57"/>
+      <c r="E1" s="58" t="str">
         <f>B24</f>
         <v>PE</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51" t="str">
+      <c r="F1" s="58"/>
+      <c r="G1" s="58" t="str">
         <f>SIDE</f>
         <v>OTM</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="52">
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59">
         <f>Charges!H1</f>
         <v>-4233.9525139650004</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="53">
+      <c r="K1" s="59"/>
+      <c r="L1" s="60">
         <f>Charges!K1</f>
         <v>22</v>
       </c>
@@ -6073,14 +6062,14 @@
         <f>INDEX_NAME</f>
         <v>NIFTY PE</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="60"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -7945,18 +7934,18 @@
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="D32" s="49" t="str">
+      <c r="D32" s="56" t="str">
         <f>IF(AND(LIMITMODE,COUNT(I6:I16)=0,COUNT(J6:J16)&lt;&gt;0),"PROVIDE LIMIT PRICE","")</f>
         <v/>
       </c>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -7965,15 +7954,15 @@
       <c r="B33" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E34" s="8"/>
@@ -8018,7 +8007,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="5">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29" xr:uid="{A1FEE6D5-54C4-461C-B04B-7F0563CB22A3}">
       <formula1>"True, False"</formula1>
     </dataValidation>
@@ -8048,7 +8037,7 @@
   <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8075,7 +8064,7 @@
         <v>1600</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
@@ -8109,14 +8098,14 @@
       <c r="A3" s="37" t="s">
         <v>1599</v>
       </c>
-      <c r="B3" s="56">
+      <c r="B3" s="49">
         <f>VLOOKUP(TRADEDSERIES,Trade!F6:G16,2,FALSE)</f>
         <v>60454</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>1595</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="53">
         <f>SUM(TRADEMGMT!E9:E1048574)</f>
         <v>0</v>
       </c>
@@ -8137,20 +8126,20 @@
       <c r="A4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="49">
         <v>0.05</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>1674</v>
       </c>
-      <c r="E4" s="58">
+      <c r="E4" s="51">
         <f>SUMIF(TRADEMGMT!G9:G1048576,ORDERSTATUS,TRADEMGMT!E9:E1048576)</f>
         <v>0</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>1597</v>
       </c>
-      <c r="H4" s="59">
+      <c r="H4" s="52">
         <f>SUMIF(TRADEMGMT!G9:G1048576,ORDERSTATUS,TRADEMGMT!H9:H1048576)</f>
         <v>0</v>
       </c>
@@ -8160,19 +8149,19 @@
         <v>1601</v>
       </c>
       <c r="B5" s="34">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D5" t="s">
         <v>1672</v>
       </c>
-      <c r="E5" s="58">
+      <c r="E5" s="51">
         <f>COUNT(TRADEMGMT!D9:D1048574)</f>
         <v>4</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>1670</v>
       </c>
-      <c r="H5" s="59">
+      <c r="H5" s="52">
         <f>BUY_ORDER_COST+(BUY_ORDER_COST*PROFIT_EXIT_ACTUAL_PERCENTAGE)</f>
         <v>0</v>
       </c>
@@ -8187,14 +8176,14 @@
       <c r="D6" s="10" t="s">
         <v>1673</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="51">
         <f>COUNTIF(TRADEMGMT!G9:G1048576,ORDERSTATUS)</f>
         <v>0</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>1671</v>
       </c>
-      <c r="H6" s="59">
+      <c r="H6" s="52">
         <f>BUY_ORDER_COST-(BUY_ORDER_COST*LOSS_EXIT_ACTUAL_PERCENTAGE)</f>
         <v>0</v>
       </c>
@@ -8203,12 +8192,12 @@
       <c r="A7" s="37" t="s">
         <v>1549</v>
       </c>
-      <c r="B7" s="56">
-        <f>IF(ALLOCATION_PCT&lt;&gt;"",
+      <c r="B7" s="49">
+        <f>IF(LMT_PRICE&lt;&gt;"",
                   IF(LMT_PRICE&lt;&gt;"",ROUNDDOWN((CAPITAL*ALLOCATION_PCT)/(LMT_PRICE*LOT_SIZE),0)*LOTSIZEMULTIPLIER,
                  ROUNDDOWN((CAPITAL*ALLOCATION_PCT)/(LTP*LOT_SIZE),0)*LOTSIZEMULTIPLIER),
 "")</f>
-        <v>7200</v>
+        <v>7350</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -8228,7 +8217,7 @@
         <v>1800</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>1592</v>
@@ -8263,7 +8252,7 @@
         <v>1680</v>
       </c>
       <c r="B9" s="37">
-        <f>ROUNDUP(B7/B8,0)</f>
+        <f>INT(ORDER_PLACED_QTY/B8)</f>
         <v>4</v>
       </c>
       <c r="D9" s="12">
@@ -8279,9 +8268,9 @@
       <c r="A10" s="37" t="s">
         <v>1681</v>
       </c>
-      <c r="B10" s="56">
-        <f>(B9-1)*B8</f>
-        <v>5400</v>
+      <c r="B10" s="49">
+        <f>B9*B8</f>
+        <v>7200</v>
       </c>
       <c r="D10" s="12">
         <v>102250930610802</v>
@@ -8294,9 +8283,9 @@
       <c r="A11" s="37" t="s">
         <v>1682</v>
       </c>
-      <c r="B11" s="56">
-        <f>B8-((B9*B8)-B7)</f>
-        <v>1800</v>
+      <c r="B11" s="49">
+        <f>MOD(ORDER_PLACED_QTY,B8)</f>
+        <v>150</v>
       </c>
       <c r="D11" s="12">
         <v>42250930656302</v>
@@ -8309,17 +8298,17 @@
       <c r="A12" s="37" t="s">
         <v>1594</v>
       </c>
-      <c r="B12" s="57" t="s">
-        <v>1683</v>
-      </c>
-      <c r="D12" s="61">
+      <c r="B12" s="50" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D12" s="54">
         <v>332250930674802</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
-      <c r="J12" s="61">
+      <c r="J12" s="54">
         <v>332250930674802</v>
       </c>
       <c r="K12" s="31"/>
@@ -8330,7 +8319,7 @@
     </row>
     <row r="13" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>1687</v>
@@ -8363,8 +8352,8 @@
       <c r="A16" s="19" t="s">
         <v>1664</v>
       </c>
-      <c r="B16" s="58">
-        <v>7200</v>
+      <c r="B16" s="51">
+        <v>4566</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -8376,32 +8365,32 @@
       <c r="S16" s="10"/>
     </row>
     <row r="17" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="55" t="s">
         <v>1680</v>
       </c>
-      <c r="B17" s="58">
-        <f>ROUNDUP(B16/B8,0)</f>
-        <v>4</v>
+      <c r="B17" s="51">
+        <f>INT(BUY_QTY/B8)</f>
+        <v>2</v>
       </c>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="55" t="s">
         <v>1681</v>
       </c>
-      <c r="B18" s="58">
-        <f>(B17-1)*B8</f>
-        <v>5400</v>
+      <c r="B18" s="51">
+        <f>B17*B8</f>
+        <v>3600</v>
       </c>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="55" t="s">
         <v>1682</v>
       </c>
-      <c r="B19" s="58">
-        <f>B8-((B17*B8)-B16)</f>
-        <v>1800</v>
+      <c r="B19" s="51">
+        <f>MOD(BUY_QTY,B8)</f>
+        <v>966</v>
       </c>
       <c r="D19" s="12"/>
     </row>
@@ -8409,7 +8398,7 @@
       <c r="A20" s="19" t="s">
         <v>1665</v>
       </c>
-      <c r="B20" s="59">
+      <c r="B20" s="52">
         <f>TRADEMGMT!H3</f>
         <v>0</v>
       </c>
@@ -8420,7 +8409,9 @@
       <c r="M20" s="31"/>
       <c r="N20" s="31"/>
       <c r="O20" s="4"/>
-      <c r="P20" s="31"/>
+      <c r="P20" s="31">
+        <v>10000</v>
+      </c>
       <c r="Q20" s="31"/>
       <c r="R20" s="31"/>
       <c r="S20" s="31"/>
@@ -8429,7 +8420,7 @@
       <c r="A21" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="59">
+      <c r="B21" s="52">
         <f>IF(AVG_BUY_PRICE&lt;&gt;"",(AVG_BUY_PRICE+(AVG_BUY_PRICE*PROFT_EXIT_TRIGGER_PERCENTAGE))-MOD((AVG_BUY_PRICE+(AVG_BUY_PRICE*PROFT_EXIT_TRIGGER_PERCENTAGE)),0.05),"")</f>
         <v>0</v>
       </c>
@@ -8440,7 +8431,9 @@
       <c r="M21" s="31"/>
       <c r="N21" s="31"/>
       <c r="O21" s="4"/>
-      <c r="P21" s="31"/>
+      <c r="P21" s="31">
+        <v>0.5</v>
+      </c>
       <c r="Q21" s="31"/>
       <c r="R21" s="31"/>
       <c r="S21" s="31"/>
@@ -8449,7 +8442,7 @@
       <c r="A22" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="59">
+      <c r="B22" s="52">
         <f>IF(AVG_BUY_PRICE&lt;&gt;"",(AVG_BUY_PRICE-(AVG_BUY_PRICE*LOSS_EXIT_TRIGGER_PERCENTAGE))-MOD((AVG_BUY_PRICE-(AVG_BUY_PRICE*LOSS_EXIT_TRIGGER_PERCENTAGE)),0.05),"")</f>
         <v>0</v>
       </c>
@@ -8461,7 +8454,10 @@
       <c r="M22" s="31"/>
       <c r="N22" s="31"/>
       <c r="O22" s="4"/>
-      <c r="P22" s="31"/>
+      <c r="P22" s="31">
+        <f>P20*P21</f>
+        <v>5000</v>
+      </c>
       <c r="Q22" s="31"/>
       <c r="R22" s="31"/>
       <c r="S22" s="31"/>
@@ -8470,7 +8466,7 @@
       <c r="A23" t="s">
         <v>1666</v>
       </c>
-      <c r="B23" s="59">
+      <c r="B23" s="52">
         <f>IF(AVG_BUY_PRICE&lt;&gt;"",(AVG_BUY_PRICE+(AVG_BUY_PRICE*PROFIT_EXIT_ACTUAL_PERCENTAGE))-MOD((AVG_BUY_PRICE+(AVG_BUY_PRICE*PROFIT_EXIT_ACTUAL_PERCENTAGE)),0.05),"")</f>
         <v>0</v>
       </c>
@@ -8481,7 +8477,9 @@
       <c r="M23" s="31"/>
       <c r="N23" s="31"/>
       <c r="O23" s="4"/>
-      <c r="P23" s="31"/>
+      <c r="P23" s="31">
+        <v>50</v>
+      </c>
       <c r="Q23" s="31"/>
       <c r="R23" s="31"/>
       <c r="S23" s="31"/>
@@ -8490,7 +8488,7 @@
       <c r="A24" t="s">
         <v>1667</v>
       </c>
-      <c r="B24" s="59">
+      <c r="B24" s="52">
         <f>IF(AVG_BUY_PRICE&lt;&gt;"",(AVG_BUY_PRICE-(AVG_BUY_PRICE*LOSS_EXIT_ACTUAL_PERCENTAGE))-MOD((AVG_BUY_PRICE-(AVG_BUY_PRICE*LOSS_EXIT_ACTUAL_PERCENTAGE)),0.05),"")</f>
         <v>0</v>
       </c>
@@ -8498,7 +8496,10 @@
       <c r="K24" s="10"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
-      <c r="P24" s="10"/>
+      <c r="P24" s="10">
+        <f>P22/P23</f>
+        <v>100</v>
+      </c>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
@@ -8507,11 +8508,15 @@
       <c r="A25" s="10" t="s">
         <v>1669</v>
       </c>
-      <c r="B25" s="59" t="e">
+      <c r="B25" s="52" t="e">
         <f>IF(B36&lt;&gt;"",(B36-MOD(B36,0.05)),"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I25"/>
+      <c r="P25">
+        <f>ROUNDDOWN(P24/75,0)</f>
+        <v>1</v>
+      </c>
       <c r="R25" s="10"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -8520,6 +8525,10 @@
       </c>
       <c r="B26" s="43"/>
       <c r="I26"/>
+      <c r="P26">
+        <f>P25*75</f>
+        <v>75</v>
+      </c>
       <c r="R26" s="10"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -8528,7 +8537,7 @@
       </c>
       <c r="B27" s="45">
         <f>IF(BUY_QTY&lt;&gt;"",BUY_QTY*BROKERAGE*2,"")</f>
-        <v>288000</v>
+        <v>182640</v>
       </c>
       <c r="I27"/>
       <c r="R27" s="10"/>
@@ -8586,6 +8595,10 @@
         <v>0</v>
       </c>
       <c r="I32"/>
+      <c r="P32" s="10">
+        <f>75*5</f>
+        <v>375</v>
+      </c>
       <c r="R32" s="10"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -8594,7 +8607,7 @@
       </c>
       <c r="B33" s="45">
         <f>IF(BUY_QTY&lt;&gt;"",(B27+B28+B31)*CHARGES_GST,"")</f>
-        <v>51840</v>
+        <v>32875.199999999997</v>
       </c>
       <c r="I33"/>
       <c r="R33" s="10"/>
@@ -8605,7 +8618,7 @@
       </c>
       <c r="B34" s="45">
         <f>IF(BUY_QTY&lt;&gt;"",SUM(B27:B33),"")</f>
-        <v>339840</v>
+        <v>215515.2</v>
       </c>
       <c r="I34"/>
       <c r="R34" s="10"/>
@@ -8646,7 +8659,7 @@
       </c>
       <c r="B40" s="41" t="str">
         <f>IF(AND(INITIATE="TRADE",ORDER_PLACED_QTY&gt;0),IF(LMT_PRICE&lt;&gt;"","LIMIT","MARKET"),"")</f>
-        <v/>
+        <v>LIMIT</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -8669,21 +8682,22 @@
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{212417BE-54D2-46D7-B79B-198CD27529C3}">
-      <formula1>"NIFTY PE, NIFTY CE, BANKNIFTY PE, BANKNIFTY CE,CRUDEOIL CE, CRUDEOIL PE, CRUDEOILM CE, CRUDEOILM PE"</formula1>
+      <formula1>"NIFTY PE, NIFTY CE, BANKNIFTY PE, BANKNIFTY CE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12" xr:uid="{03C9B054-A939-47CB-97F2-9DCC89D49BFD}">
       <formula1>"TRADE, STOP"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{7263FF6E-CFF3-41C8-83D6-667A6690EC8E}">
-      <formula1>"OPEN,INITIATED,INPROGRESS,COMPLETE"</formula1>
+      <formula1>"START,PROCESSING,PROCESS-EXIT-PROFIT,PROCESS-EXIT-LOSS,EXIT-PROFIT,EXIT-LOSS,PROCESS-EXIT-BE,EXIT-BE,COMPLETED"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{996C241C-E408-4845-812B-AAB72B96820F}">
           <x14:formula1>
             <xm:f>Trade!$F$6:$F$16</xm:f>
@@ -35421,17 +35435,17 @@
         <f>B2-B1</f>
         <v>-3300</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="62" t="s">
         <v>1577</v>
       </c>
-      <c r="H1" s="54">
+      <c r="H1" s="61">
         <f>E1-E2</f>
         <v>-4233.9525139650004</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="62" t="s">
         <v>1579</v>
       </c>
-      <c r="K1" s="54">
+      <c r="K1" s="61">
         <f>COUNT(_xlfn.UNIQUE(A4:A52))</f>
         <v>22</v>
       </c>
@@ -35451,10 +35465,10 @@
         <f>SUM(M4:M52)</f>
         <v>933.95251396500009</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="54"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="54"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="61"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
